--- a/files/populate.xlsx
+++ b/files/populate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\excel_automation\censored\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94261F6-D32D-421E-BF18-5618CADB28B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ADA321-AE42-41AA-8743-2FA2DC792889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,10 +447,43 @@
   <dimension ref="A1:AH1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
